--- a/sport/output/31.xlsx
+++ b/sport/output/31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="203">
   <si>
     <t>category</t>
   </si>
@@ -46,15 +46,15 @@
     <t>Mixed Event</t>
   </si>
   <si>
+    <t>Juniors</t>
+  </si>
+  <si>
+    <t>Continental Cup - Youth A</t>
+  </si>
+  <si>
     <t>National Competitions with International Participation</t>
   </si>
   <si>
-    <t>Juniors</t>
-  </si>
-  <si>
-    <t>Continental Cup - Youth A</t>
-  </si>
-  <si>
     <t>International Training Weeks</t>
   </si>
   <si>
@@ -136,6 +136,36 @@
     <t>16.02.2025 - 16.02.2025</t>
   </si>
   <si>
+    <t>03.12.2024 - 07.12.2024</t>
+  </si>
+  <si>
+    <t>16.12.2024 - 21.12.2024</t>
+  </si>
+  <si>
+    <t>28.12.2024 - 29.12.2024</t>
+  </si>
+  <si>
+    <t>03.01.2025 - 04.01.2025</t>
+  </si>
+  <si>
+    <t>01.03.2025 - 02.03.2025</t>
+  </si>
+  <si>
+    <t>11.12.2024 - 14.12.2024</t>
+  </si>
+  <si>
+    <t>16.12.2024 - 19.12.2024</t>
+  </si>
+  <si>
+    <t>13.01.2025 - 18.01.2025</t>
+  </si>
+  <si>
+    <t>27.01.2025 - 31.01.2025</t>
+  </si>
+  <si>
+    <t>10.02.2025 - 16.02.2025</t>
+  </si>
+  <si>
     <t>09.05.2024 - 12.05.2024</t>
   </si>
   <si>
@@ -163,45 +193,6 @@
     <t>02.03.2025 - 02.03.2025</t>
   </si>
   <si>
-    <t>08.05.2025 - 11.05.2025</t>
-  </si>
-  <si>
-    <t>23.05.2025 - 24.05.2025</t>
-  </si>
-  <si>
-    <t>30.08.2025 - 30.08.2025</t>
-  </si>
-  <si>
-    <t>03.12.2024 - 07.12.2024</t>
-  </si>
-  <si>
-    <t>16.12.2024 - 21.12.2024</t>
-  </si>
-  <si>
-    <t>28.12.2024 - 29.12.2024</t>
-  </si>
-  <si>
-    <t>03.01.2025 - 04.01.2025</t>
-  </si>
-  <si>
-    <t>01.03.2025 - 02.03.2025</t>
-  </si>
-  <si>
-    <t>11.12.2024 - 14.12.2024</t>
-  </si>
-  <si>
-    <t>16.12.2024 - 19.12.2024</t>
-  </si>
-  <si>
-    <t>13.01.2025 - 18.01.2025</t>
-  </si>
-  <si>
-    <t>27.01.2025 - 31.01.2025</t>
-  </si>
-  <si>
-    <t>10.02.2025 - 16.02.2025</t>
-  </si>
-  <si>
     <t>09.12.2024 - 13.12.2024</t>
   </si>
   <si>
@@ -226,7 +217,7 @@
     <t>14th FIL America Pacific Junior Championships (JAPCH) | Oberhof (GER)</t>
   </si>
   <si>
-    <t>38th FIL Junior Europeanchampionships | Latsch (ITA)</t>
+    <t>38th FIL Junior European Championships | Latsch (ITA)</t>
   </si>
   <si>
     <t>14th FIL America Pacific Championships (APCH) | PyeongChang (KOR)</t>
@@ -241,7 +232,7 @@
     <t>EBERSPÄCHER World Cup | Lillehammer (NOR)</t>
   </si>
   <si>
-    <t>EBERSPÄCHER World Cup | Innsbruck (AUT)</t>
+    <t>EBERSPÄCHER World Cup | Innsbruck/Igls (AUT)</t>
   </si>
   <si>
     <t>EBERSPÄCHER World Cup | Oberhof (GER)</t>
@@ -283,7 +274,7 @@
     <t>6th FIL Luge World Cup on Natural Track | Deutschnofen (ITA)</t>
   </si>
   <si>
-    <t>EBERSPÄCHER Team Relay World Cup presented by BMW | Innsbruck (AUT)</t>
+    <t>EBERSPÄCHER Team Relay World Cup presented by BMW | Innsbruck/Igls (AUT)</t>
   </si>
   <si>
     <t>EBERSPÄCHER Team Relay World Cup presented by BMW | Oberhof (GER)</t>
@@ -310,6 +301,54 @@
     <t>EBERSPÄCHER Mixed World Cup presented by SKECHERS | PyeongChang (KOR)</t>
   </si>
   <si>
+    <t>1st + 2nd Junior World Cup | La Plagne (FRA)</t>
+  </si>
+  <si>
+    <t>3rd Junior World Cup | Winterberg (GER)</t>
+  </si>
+  <si>
+    <t>1st FIL Junior Luge World Cup on Natural Track | Obdach-Winterleiten (AUT)</t>
+  </si>
+  <si>
+    <t>2nd FIL Junior Luge World Cup on Natural Track | Passeiertal (ITA)</t>
+  </si>
+  <si>
+    <t>3rd FIL Junior Luge World Cup on Natural Track | Umhausen (AUT)</t>
+  </si>
+  <si>
+    <t>FIL Youth Games - Natural Track | Jaufental (ITA)</t>
+  </si>
+  <si>
+    <t>Final FIL Junior Luge World Cup on Natural Track | Laas (ITA)</t>
+  </si>
+  <si>
+    <t>4th Junior World Cup | Oberhof (GER)</t>
+  </si>
+  <si>
+    <t>5th Junior World Cup | Sigulda (LAT)</t>
+  </si>
+  <si>
+    <t>6th Junior World Cup | Sigulda (LAT)</t>
+  </si>
+  <si>
+    <t>Continental Cup Youth A | Park City (USA)</t>
+  </si>
+  <si>
+    <t>Continental Cup Youth A | Altenberg (GER)</t>
+  </si>
+  <si>
+    <t>Continental Cup Youth A | Bludenz (AUT)</t>
+  </si>
+  <si>
+    <t>Continental Cup Youth A | Lake Placid (USA)</t>
+  </si>
+  <si>
+    <t>Continental Cup Youth A | Innsbruck/Igls (AUT)</t>
+  </si>
+  <si>
+    <t>Continental Cup Youth A | Winterberg (GER)</t>
+  </si>
+  <si>
     <t>FIL Summercup Zwickau | Zwickau (GER)</t>
   </si>
   <si>
@@ -322,7 +361,7 @@
     <t>BSD Summer Cup - Lichtensteiner Amateur Sports Championship 2024 | Zwickau (GER)</t>
   </si>
   <si>
-    <t>World Youth Challenge 2024/25 | Innsbruck (AUT)</t>
+    <t>World Youth Challenge 2024/25 | Innsbruck/Igls (AUT)</t>
   </si>
   <si>
     <t>International Rennsteig-Trophie Youth B | Oberhof (GER)</t>
@@ -337,7 +376,7 @@
     <t>FIL Youth Games and International Rätikon Luge Trophy Youth A-E | Bludenz (AUT)</t>
   </si>
   <si>
-    <t>Sepp Benz Memorial | St. Moritz-Celerina (SUI)</t>
+    <t>Sepp Benz Memorial Race | St. Moritz-Celerina (SUI)</t>
   </si>
   <si>
     <t>Master World Trophy | St. Moritz-Celerina (SUI)</t>
@@ -346,63 +385,6 @@
     <t>Teddybärencup 2025 | Meransen (ITA)</t>
   </si>
   <si>
-    <t>International FIL-Summer cup 2025 | Zwickau (GER)</t>
-  </si>
-  <si>
-    <t>FIL Summer Luge Cup 2025 | Ilmenau (GER)</t>
-  </si>
-  <si>
-    <t>32nd Gitschberg Start Cup | Meransen (ITA)</t>
-  </si>
-  <si>
-    <t>1st + 2nd Junior World Cup | La Plagne (FRA)</t>
-  </si>
-  <si>
-    <t>3rd Junior World Cup | Winterberg (GER)</t>
-  </si>
-  <si>
-    <t>1st FIL Junior Luge World Cup on Natural Track | Obdach-Winterleiten (AUT)</t>
-  </si>
-  <si>
-    <t>2nd FIL Junior Luge World Cup on Natural Track | Passeiertal (ITA)</t>
-  </si>
-  <si>
-    <t>3rd FIL Junior Luge World Cup on Natural Track | Umhausen (AUT)</t>
-  </si>
-  <si>
-    <t>FIL Youth Games - Natural Track | Jaufental (ITA)</t>
-  </si>
-  <si>
-    <t>Final FIL Junior Luge World Cup on Natural Track | Laas (ITA)</t>
-  </si>
-  <si>
-    <t>4th Junior World Cup | Oberhof (GER)</t>
-  </si>
-  <si>
-    <t>5th Junior World Cup | Sigulda (LAT)</t>
-  </si>
-  <si>
-    <t>6th Junior World Cup | Sigulda (LAT)</t>
-  </si>
-  <si>
-    <t>Continental Cup Youth A | Park City (USA)</t>
-  </si>
-  <si>
-    <t>Continental Cup Youth A | Altenberg (GER)</t>
-  </si>
-  <si>
-    <t>Continental Cup Youth A | Bludenz (AUT)</t>
-  </si>
-  <si>
-    <t>Continental Cup Youth A | Lake Placid (USA)</t>
-  </si>
-  <si>
-    <t>Continental Cup Youth A | Innsbruck (AUT)</t>
-  </si>
-  <si>
-    <t>Continental Cup Youth A | Winterberg (GER)</t>
-  </si>
-  <si>
     <t>International training week | Kühtai (AUT)</t>
   </si>
   <si>
@@ -445,211 +427,202 @@
     <t>/img/flags/ic-flagge-usa.png</t>
   </si>
   <si>
-    <t>Natural Track</t>
-  </si>
-  <si>
-    <t>Artificial Track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/fil-world-championships-12</t>
-  </si>
-  <si>
-    <t>/en/multimedia/56th-fil-european-championships</t>
-  </si>
-  <si>
-    <t>/en/multimedia/40th-fil-junior-world-championships</t>
-  </si>
-  <si>
-    <t>/en/multimedia/53rd-fil-world-championships</t>
-  </si>
-  <si>
-    <t>/en/multimedia/14th-fil-america-pacific-junior-championships-japch</t>
-  </si>
-  <si>
-    <t>/en/multimedia/38th-fil-junior-europeanchampionships</t>
-  </si>
-  <si>
-    <t>/en/multimedia/14th-fil-america-pacific-championships-apch</t>
-  </si>
-  <si>
-    <t>/en/multimedia/10th-fil-asian-championships-ach</t>
-  </si>
-  <si>
-    <t>/en/multimedia/46th-fil-junior-european-championships</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-35</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-36</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-37</t>
-  </si>
-  <si>
-    <t>/en/multimedia/1st-fil-luge-world-cup-on-natural-track-3</t>
-  </si>
-  <si>
-    <t>/en/multimedia/2nd-fil-luge-world-cup-on-natural-track-1</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-38</t>
-  </si>
-  <si>
-    <t>/en/multimedia/3rd-fil-luge-world-cup-on-natural-track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-39</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-40</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cups</t>
-  </si>
-  <si>
-    <t>/en/multimedia/4th-fil-luge-world-cup-on-natural-track-2</t>
-  </si>
-  <si>
-    <t>/en/multimedia/5th-fil-luge-world-cup-on-natural-track-eliminator</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-41</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-world-cup-42</t>
-  </si>
-  <si>
-    <t>/en/multimedia/6th-fil-luge-world-cup-on-natural-track-3</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-team-relay-world-cup-presented-by-bmw-24</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-team-relay-world-cup-presented-by-bmw-25</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-team-relay-world-cup-presented-by-bmw-26</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-team-relay-world-cup-presented-by-bmw-29</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-team-relay-world-cup-presented-by-bmw-27</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-team-relay-world-cup-presented-by-bmw-28</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-mixed-world-cup-presented-by-skechers-2</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-mixed-world-cup-presented-by-skechers-1</t>
-  </si>
-  <si>
-    <t>/en/multimedia/eberspaecher-mixed-world-cup-presented-by-skechers</t>
-  </si>
-  <si>
-    <t>/en/multimedia/fil-summercup-zwickau</t>
-  </si>
-  <si>
-    <t>/en/multimedia/fil-summer-cup-2024</t>
-  </si>
-  <si>
-    <t>/en/multimedia/31st-gitschberg-start-cup</t>
-  </si>
-  <si>
-    <t>/en/multimedia/bsd-summer-cup-lichtensteiner-amateur-sports-championship-2024</t>
-  </si>
-  <si>
-    <t>/en/multimedia/world-youth-challenge-2024-25</t>
-  </si>
-  <si>
-    <t>/en/multimedia/international-rennsteig-trophie-youth-b</t>
-  </si>
-  <si>
-    <t>/en/multimedia/int-alpenlaenderpokalrennen-1</t>
-  </si>
-  <si>
-    <t>/en/multimedia/int-laendervergleichskampf-6</t>
-  </si>
-  <si>
-    <t>/en/multimedia/fil-youth-games-and-international-raetikon-luge-trophy-youth-a-e</t>
-  </si>
-  <si>
-    <t>/en/multimedia/sepp-benz-memorial-1</t>
-  </si>
-  <si>
-    <t>/en/multimedia/master-world-trophy</t>
-  </si>
-  <si>
-    <t>/en/multimedia/teddybaerencup-2025</t>
-  </si>
-  <si>
-    <t>/en/multimedia/international-fil-summer-cup-2025</t>
-  </si>
-  <si>
-    <t>/en/multimedia/fil-summer-luge-cup-2025</t>
-  </si>
-  <si>
-    <t>/en/multimedia/32nd-gitschberg-start-cup</t>
-  </si>
-  <si>
-    <t>/en/multimedia/1st-2nd-junior-world-cup-1</t>
-  </si>
-  <si>
-    <t>/en/multimedia/3rd-junior-world-cup-5</t>
-  </si>
-  <si>
-    <t>/en/multimedia/1st-fil-junior-luge-world-cup-on-natural-track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/2nd-fil-junior-luge-world-cup-on-natural-track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/3rd-fil-junior-luge-world-cup-on-natural-track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/fil-youth-games-natural-track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/final-fil-junior-luge-world-cup-on-natural-track</t>
-  </si>
-  <si>
-    <t>/en/multimedia/4th-junior-world-cup-3</t>
-  </si>
-  <si>
-    <t>/en/multimedia/5th-junior-world-cup-4</t>
-  </si>
-  <si>
-    <t>/en/multimedia/6th-junior-world-cup-3</t>
-  </si>
-  <si>
-    <t>/en/multimedia/continental-cup-youth-a-17</t>
-  </si>
-  <si>
-    <t>/en/multimedia/continental-cup-youth-a-10</t>
-  </si>
-  <si>
-    <t>/en/multimedia/continental-cup-youth-a-9</t>
-  </si>
-  <si>
-    <t>/en/multimedia/continental-cup-youth-a-18</t>
-  </si>
-  <si>
-    <t>/en/multimedia/continental-cup-youth-a-8</t>
-  </si>
-  <si>
-    <t>/en/multimedia/continental-cup-youth-a-7</t>
-  </si>
-  <si>
-    <t>/en/multimedia/international-training-week-47</t>
-  </si>
-  <si>
-    <t>/en/multimedia/international-training-week-48</t>
-  </si>
-  <si>
-    <t>/en/multimedia/international-training-week-45</t>
+    <t>Alpine Luge</t>
+  </si>
+  <si>
+    <t>Luge Artificial Track</t>
+  </si>
+  <si>
+    <t>/en/media/fil-world-championships-12</t>
+  </si>
+  <si>
+    <t>/en/media/56th-fil-european-championships</t>
+  </si>
+  <si>
+    <t>/en/media/40th-fil-junior-world-championships</t>
+  </si>
+  <si>
+    <t>/en/media/53rd-fil-world-championships</t>
+  </si>
+  <si>
+    <t>/en/media/14th-fil-america-pacific-junior-championships-japch</t>
+  </si>
+  <si>
+    <t>/en/media/38th-fil-junior-european-championships</t>
+  </si>
+  <si>
+    <t>/en/media/14th-fil-america-pacific-championships-apch</t>
+  </si>
+  <si>
+    <t>/en/media/10th-fil-asian-championships-ach</t>
+  </si>
+  <si>
+    <t>/en/media/46th-fil-junior-european-championships</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-35</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-36</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-37</t>
+  </si>
+  <si>
+    <t>/en/media/1st-fil-luge-world-cup-on-natural-track-3</t>
+  </si>
+  <si>
+    <t>/en/media/2nd-fil-luge-world-cup-on-natural-track-1</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-38</t>
+  </si>
+  <si>
+    <t>/en/media/3rd-fil-luge-world-cup-on-natural-track</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-39</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-40</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cups</t>
+  </si>
+  <si>
+    <t>/en/media/4th-fil-luge-world-cup-on-natural-track-2</t>
+  </si>
+  <si>
+    <t>/en/media/5th-fil-luge-world-cup-on-natural-track-eliminator</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-41</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-world-cup-42</t>
+  </si>
+  <si>
+    <t>/en/media/6th-fil-luge-world-cup-on-natural-track-3</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-team-relay-world-cup-presented-by-bmw-24</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-team-relay-world-cup-presented-by-bmw-25</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-team-relay-world-cup-presented-by-bmw-26</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-team-relay-world-cup-presented-by-bmw-29</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-team-relay-world-cup-presented-by-bmw-27</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-team-relay-world-cup-presented-by-bmw-28</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-mixed-world-cup-presented-by-skechers-2</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-mixed-world-cup-presented-by-skechers-1</t>
+  </si>
+  <si>
+    <t>/en/media/eberspaecher-mixed-world-cup-presented-by-skechers</t>
+  </si>
+  <si>
+    <t>/en/media/1st-2nd-junior-world-cup-1</t>
+  </si>
+  <si>
+    <t>/en/media/3rd-junior-world-cup-5</t>
+  </si>
+  <si>
+    <t>/en/media/1st-fil-junior-luge-world-cup-on-natural-track</t>
+  </si>
+  <si>
+    <t>/en/media/2nd-fil-junior-luge-world-cup-on-natural-track</t>
+  </si>
+  <si>
+    <t>/en/media/3rd-fil-junior-luge-world-cup-on-natural-track</t>
+  </si>
+  <si>
+    <t>/en/media/fil-youth-games-natural-track</t>
+  </si>
+  <si>
+    <t>/en/media/final-fil-junior-luge-world-cup-on-natural-track</t>
+  </si>
+  <si>
+    <t>/en/media/4th-junior-world-cup-3</t>
+  </si>
+  <si>
+    <t>/en/media/5th-junior-world-cup-4</t>
+  </si>
+  <si>
+    <t>/en/media/6th-junior-world-cup-3</t>
+  </si>
+  <si>
+    <t>/en/media/continental-cup-youth-a-17</t>
+  </si>
+  <si>
+    <t>/en/media/continental-cup-youth-a-10</t>
+  </si>
+  <si>
+    <t>/en/media/continental-cup-youth-a-9</t>
+  </si>
+  <si>
+    <t>/en/media/continental-cup-youth-a-18</t>
+  </si>
+  <si>
+    <t>/en/media/continental-cup-youth-a-8</t>
+  </si>
+  <si>
+    <t>/en/media/continental-cup-youth-a-7</t>
+  </si>
+  <si>
+    <t>/en/media/fil-summercup-zwickau</t>
+  </si>
+  <si>
+    <t>/en/media/fil-summer-cup-2024</t>
+  </si>
+  <si>
+    <t>/en/media/31st-gitschberg-start-cup</t>
+  </si>
+  <si>
+    <t>/en/media/bsd-summer-cup-lichtensteiner-amateur-sports-championship-2024</t>
+  </si>
+  <si>
+    <t>/en/media/world-youth-challenge-2024-25</t>
+  </si>
+  <si>
+    <t>/en/media/international-rennsteig-trophie-youth-b</t>
+  </si>
+  <si>
+    <t>/en/media/int-alpenlaenderpokalrennen-1</t>
+  </si>
+  <si>
+    <t>/en/media/int-laendervergleichskampf-6</t>
+  </si>
+  <si>
+    <t>/en/media/fil-youth-games-and-international-raetikon-luge-trophy-youth-a-e</t>
+  </si>
+  <si>
+    <t>/en/media/sepp-benz-memorial-race</t>
+  </si>
+  <si>
+    <t>/en/media/master-world-trophy</t>
+  </si>
+  <si>
+    <t>/en/media/teddybaerencup-2025</t>
+  </si>
+  <si>
+    <t>/en/media/international-training-week-47</t>
+  </si>
+  <si>
+    <t>/en/media/international-training-week-48</t>
+  </si>
+  <si>
+    <t>/en/media/international-training-week-45</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,16 +1014,16 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1061,16 +1034,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1081,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1101,16 +1074,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1121,16 +1094,16 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1141,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1161,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1181,16 +1154,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1201,16 +1174,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1221,16 +1194,16 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1241,16 +1214,16 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1261,16 +1234,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1281,16 +1254,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1301,16 +1274,16 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1321,16 +1294,16 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1341,16 +1314,16 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1361,16 +1334,16 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1381,16 +1354,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1401,16 +1374,16 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1421,16 +1394,16 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1441,16 +1414,16 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1461,16 +1434,16 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1481,16 +1454,16 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1501,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1521,16 +1494,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1541,16 +1514,16 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1561,16 +1534,16 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1581,16 +1554,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1601,16 +1574,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1621,16 +1594,16 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1641,16 +1614,16 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1661,16 +1634,16 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1681,16 +1654,16 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1701,16 +1674,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1721,16 +1694,16 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1741,16 +1714,16 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1761,16 +1734,16 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1778,19 +1751,19 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1798,19 +1771,19 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1818,19 +1791,19 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1838,19 +1811,19 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F42" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1858,19 +1831,19 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
         <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1878,119 +1851,119 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1998,199 +1971,199 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F58" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F59" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2201,16 +2174,16 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2218,19 +2191,19 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E61" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2238,139 +2211,79 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
       </c>
       <c r="C63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D63" t="s">
         <v>126</v>
       </c>
-      <c r="D63" t="s">
-        <v>142</v>
-      </c>
       <c r="E63" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F64" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" t="s">
-        <v>143</v>
-      </c>
-      <c r="F66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" t="s">
-        <v>144</v>
-      </c>
-      <c r="F68" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
